--- a/biology/Zoologie/Engoulevent_d'Amérique/Engoulevent_d'Amérique.xlsx
+++ b/biology/Zoologie/Engoulevent_d'Amérique/Engoulevent_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Am%C3%A9rique</t>
+          <t>Engoulevent_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chordeiles minor
 L’Engoulevent d'Amérique, Engoulevent commun ou Engoulevent mange-maringouins  (Chordeiles minor) est une espèce d'oiseau qui se trouve de l'extrême sud du Canada à l'Amérique du Sud (à l'exception du sud du continent). L'espèce était autrefois connu sous le nom de Chordeiles virginianus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Am%C3%A9rique</t>
+          <t>Engoulevent_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les engoulevents adultes sont sombres avec des motifs châtain, gris et blanc sur le dos et la poitrine; les longues ailes sont noires et montrent une barre blanche dans le vol. La queue est sombre avec une traînée de croix blanche; la partie supérieure des ailes sombres avec une bande blanche. Le mâle adulte a la gorge blanche. la femelle a la gorge brun clair.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Am%C3%A9rique</t>
+          <t>Engoulevent_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chant de l'engoulevent d'Amérique
 Les engoulevents hivernent en Amérique du Sud. Ils migrent en groupes. Leur habitat de reproduction est l'Amérique du Nord et l'Amérique Centrale. Ils nichent généralement sur le sol nu, parfois sur des souches ou des terrasses de sable grossier. Ils pondent deux œufs directement sur le sol, il n'y a pas de nid. L'incubation est faite par la femelle et dure environ 20 jours. Le jeune vole à l'âge de 20 jours. 
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engoulevent_d%27Am%C3%A9rique</t>
+          <t>Engoulevent_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,48 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On peut trouver l'engoulevent d'Amérique dans les forêts, les déserts, les savanes, les garrigues de plage et de désert, les villes, les prairies, à une altitude égale ou inférieure à 3 000 m. L'engoulevent d'Amérique est attiré dans les zones urbaines par la présence d'insectes.
-Sous-espèces
-D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des neuf sous-espèces suivantes (ordre phylogénique) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut trouver l'engoulevent d'Amérique dans les forêts, les déserts, les savanes, les garrigues de plage et de désert, les villes, les prairies, à une altitude égale ou inférieure à 3 000 m. L'engoulevent d'Amérique est attiré dans les zones urbaines par la présence d'insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Engoulevent_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engoulevent_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des neuf sous-espèces suivantes (ordre phylogénique) :
 Chordeiles minor minor (J.R. Forster, 1771) ;
 Chordeiles minor hesperis Grinnell, 1905 ;
 Chordeiles minor sennetti Coues, 1888 ;
@@ -594,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Engoulevent_d%27Am%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Engoulevent_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Engoulevent_d%27Am%C3%A9rique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Statut de Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Statut mondial (UICN) : Préoccupation mineure
 Statut au Québec : espèce susceptible d'être désignée menacée ou vulnérable</t>
